--- a/BOM_BaseBoard.xlsx
+++ b/BOM_BaseBoard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>Reference</t>
   </si>
@@ -293,7 +293,57 @@
     <t>https://www.ebay.com/sch/i.html?_odkw=in-12&amp;_osacat=0&amp;_from=R40&amp;_trksid=p2045573.m570.l1313.TR0.TRC0.H0.Xk155id1.TRS0&amp;_nkw=k155id1&amp;_sacat=0</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>基板+部品代合計</t>
+    <rPh sb="0" eb="2">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ブヒンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>部品代合計</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>10cm x 10cm 2layer @ elecrow</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.elecrow.com/special-offer-for-2-layer-10-10cm-max-green-pcb-10pcs.html</t>
+  </si>
+  <si>
+    <t>$4.90 / 10pcs</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>別途送料(秋月\500, elecrow $4.8 - $16)</t>
+    <rPh sb="0" eb="2">
+      <t>ベット</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アキヅキ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -301,7 +351,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +511,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -643,7 +702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -773,6 +832,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -902,11 +1058,47 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,19 +1456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
     <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="67.3984375" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
-    <col min="6" max="6" width="43.796875" customWidth="1"/>
+    <col min="3" max="3" width="44.59765625" customWidth="1"/>
+    <col min="4" max="4" width="26.8984375" customWidth="1"/>
+    <col min="6" max="6" width="45.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1303,19 +1495,19 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>250</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1323,19 +1515,19 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1343,19 +1535,19 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1363,36 +1555,37 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>14</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1400,19 +1593,19 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1420,36 +1613,37 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1457,36 +1651,37 @@
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>5</v>
       </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1494,19 +1689,19 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1514,36 +1709,37 @@
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1551,87 +1747,91 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>5</v>
       </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>5</v>
       </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>1</v>
       </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>1</v>
       </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>80</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1639,19 +1839,19 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>90</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1659,19 +1859,19 @@
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>200</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1679,77 +1879,118 @@
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>200</v>
       </c>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>1</v>
       </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>1</v>
       </c>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>4</v>
       </c>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="11">
         <f>SUM(E2:E25)</f>
         <v>923</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="9"/>
+      <c r="B28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="12">
+        <v>50</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="9"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="13">
+        <f>SUM(E26:E28)</f>
+        <v>973</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/BOM_BaseBoard.xlsx
+++ b/BOM_BaseBoard.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minori Takao\Dropbox\Dev\KiCad\NixieClockKit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mtakao\Dropbox\Dev\KiCad\NixieClockKit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="8904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22989" windowHeight="8906"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bom!$A$1:$G$31</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>Reference</t>
   </si>
@@ -346,11 +349,87 @@
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>socket</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>header</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1x4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1x5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1x12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1x5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2x4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>total 47</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DIP28 socket</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DIP16 socket</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1058,7 +1137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,11 +1174,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1455,545 +1537,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" customWidth="1"/>
-    <col min="3" max="3" width="44.59765625" customWidth="1"/>
-    <col min="4" max="4" width="26.8984375" customWidth="1"/>
-    <col min="6" max="6" width="45.296875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.92578125" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="3">
-        <v>250</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="6">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="6">
+      <c r="F12" s="6">
         <v>20</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6">
+        <v>250</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="6">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="6">
+        <v>5</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="6">
+        <v>5</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="6">
+        <v>5</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="6">
+      <c r="F21" s="6">
         <v>14</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="6">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="6">
-        <v>5</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="6">
-        <v>5</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="6">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="6">
-        <v>80</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="6">
-        <v>90</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A22" t="s">
         <v>43</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="6">
-        <v>200</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>46</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="6">
+      <c r="F22" s="6">
         <v>200</v>
       </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="6">
+        <v>200</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="6">
         <v>31</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="6">
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="6">
+        <v>90</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="B25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A26" s="6"/>
+      <c r="B26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="14">
+        <v>50</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6">
+        <v>31</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="6">
+        <v>80</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="11">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="6">
+        <f>SUM(F3:F28)</f>
+        <v>972</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A30" s="9"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="A31" s="9"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="12">
+        <f>SUM(F28:F30)</f>
+        <v>1002</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.65">
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.65">
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.65">
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.65">
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.65">
+      <c r="C39" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39">
         <v>1</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="F39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.65">
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.65">
+      <c r="C43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.65">
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="G44">
         <v>48</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="6">
-        <v>4</v>
-      </c>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="11">
-        <f>SUM(E2:E25)</f>
-        <v>923</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="9"/>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="12">
-        <v>50</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="13">
-        <f>SUM(E26:E28)</f>
-        <v>973</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G31">
+    <sortState ref="A2:G29">
+      <sortCondition ref="B1:B29"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/BOM_BaseBoard.xlsx
+++ b/BOM_BaseBoard.xlsx
@@ -9,20 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22989" windowHeight="8906"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22989" windowHeight="8906" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
+    <sheet name="1台分BOM" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bom!$A$1:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1台分BOM'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bom!$A$28:$H$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="185">
   <si>
     <t>Reference</t>
   </si>
@@ -60,36 +62,21 @@
     <t>Capacitors_THT:C_Disc_D5.0mm_W2.5mm_P5.00mm</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
     <t>J4</t>
   </si>
   <si>
-    <t>Conn_02x03_Odd_Even</t>
-  </si>
-  <si>
     <t>Pin_Headers:Pin_Header_Straight_2x03_Pitch2.54mm</t>
   </si>
   <si>
     <t>J2</t>
   </si>
   <si>
-    <t>Conn_01x05</t>
-  </si>
-  <si>
     <t>Pin_Headers:Pin_Header_Straight_1x05_Pitch2.54mm</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
-    <t>Conn_01x04</t>
-  </si>
-  <si>
     <t>Pin_Headers:Pin_Header_Straight_1x04_Pitch2.54mm</t>
   </si>
   <si>
@@ -111,9 +98,6 @@
     <t>22pF</t>
   </si>
   <si>
-    <t>C6</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -129,9 +113,6 @@
     <t>J7</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
     <t>R4</t>
   </si>
   <si>
@@ -153,25 +134,10 @@
     <t>Housings_DIP:DIP-16_W7.62mm_LongPads</t>
   </si>
   <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>IN-12B</t>
-  </si>
-  <si>
     <t>NixieKitLib:IN-12B</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
     <t>R5</t>
-  </si>
-  <si>
-    <t>J5</t>
   </si>
   <si>
     <t>単価</t>
@@ -220,13 +186,6 @@
   <si>
     <t>2x40 \50</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1x40 \35</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>http://akizukidenshi.com/catalog/g/gC-00167/</t>
   </si>
   <si>
     <t>http://akizukidenshi.com/catalog/g/gC-01627/</t>
@@ -296,57 +255,178 @@
     <t>https://www.ebay.com/sch/i.html?_odkw=in-12&amp;_osacat=0&amp;_from=R40&amp;_trksid=p2045573.m570.l1313.TR0.TRC0.H0.Xk155id1.TRS0&amp;_nkw=k155id1&amp;_sacat=0</t>
   </si>
   <si>
-    <t>基板+部品代合計</t>
+    <t>10cm x 10cm 2layer @ elecrow</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>https://www.elecrow.com/special-offer-for-2-layer-10-10cm-max-green-pcb-10pcs.html</t>
+  </si>
+  <si>
+    <t>$4.90 / 10pcs</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DIP28 socket</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DIP16 socket</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>在庫</t>
     <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C1, C4, C2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R1, R2, R4, R3, R5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C5, C6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Socket_Conn_01x04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Socket_Conn_01x05</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Header_Conn_01x04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Header_Conn_01x05</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Header_Conn_02x03_Odd_Even</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>時計1台分の個数</t>
+    <rPh sb="0" eb="2">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コスウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ニキシー管制御基板</t>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>キバン</t>
     </rPh>
-    <rPh sb="3" eb="6">
-      <t>ブヒンダイ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ニキシー管基板</t>
+    <rPh sb="5" eb="7">
+      <t>キバン</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>部品代合計</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J9</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Pin_Headers:Pin_Header_Straight_1x12_Pitch2.54mm</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J10</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>L_Header_Conn_01x12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Socket_Conn_01x12</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>電源基板</t>
     <rPh sb="0" eb="2">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>10cm x 10cm 2layer @ elecrow</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>https://www.elecrow.com/special-offer-for-2-layer-10-10cm-max-green-pcb-10pcs.html</t>
-  </si>
-  <si>
-    <t>$4.90 / 10pcs</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>PCB</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>別途送料(秋月\500, elecrow $4.8 - $16)</t>
-    <rPh sb="0" eb="2">
-      <t>ベット</t>
+      <t>デンゲン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ソウリョウ</t>
+      <t>キバン</t>
     </rPh>
-    <rPh sb="5" eb="7">
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>秋月価格</t>
+    <rPh sb="0" eb="2">
       <t>アキヅキ</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>カカク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>VR_2K</t>
+  </si>
+  <si>
+    <t>NixiePowerSupply:VOL_3362P-1-202LF</t>
+  </si>
+  <si>
+    <t>1個 \40</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>UF2010</t>
+  </si>
+  <si>
+    <t>Diodes_THT:D_DO-15_P5.08mm_Vertical_AnodeUp</t>
+  </si>
+  <si>
+    <t>1個 \200</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NJM2360</t>
+  </si>
+  <si>
+    <t>1個 \140</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
@@ -354,6 +434,317 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
+    <t>1x42 \80</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>BARREL_JACK</t>
+  </si>
+  <si>
+    <t>Connectors:BARREL_JACK</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gR-07817/</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>470uH</t>
+  </si>
+  <si>
+    <t>NixiePowerSupply:Inductors_LHL13NB471K</t>
+  </si>
+  <si>
+    <t>1個 \60</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>470k</t>
+  </si>
+  <si>
+    <t>4.7u_400V</t>
+  </si>
+  <si>
+    <t>Capacitors_THT:CP_Radial_D10.0mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>2SK3115</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_THT:TO-220-3_Vertical</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-00882/</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>2SA1015</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_THT:TO-92_Inline_Narrow_Oval</t>
+  </si>
+  <si>
+    <t>10個 \100</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-00941/</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>2.2k</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-00124/</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diodes_THT:D_DO-35_SOD27_P7.62mm_Horizontal</t>
+  </si>
+  <si>
+    <t>50個 \100</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03060/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-10600/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gR-25474/</t>
+  </si>
+  <si>
+    <t>100uF_16V</t>
+  </si>
+  <si>
+    <t>Capacitors_THT:CP_Radial_D5.0mm_P2.00mm</t>
+  </si>
+  <si>
+    <t>1個 \15</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1000pF</t>
+  </si>
+  <si>
+    <t>1個 \5</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-03273/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-02724/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-05779/</t>
+  </si>
+  <si>
+    <t>1個 \25</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Resistors_THT:R_Axial_DIN0309_L9.0mm_D3.2mm_P12.70mm_Horizontal</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-10997/</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Resistors_THT:R_Axial_DIN0414_L11.9mm_D4.5mm_P15.24mm_Horizontal</t>
+  </si>
+  <si>
+    <t>100個 \220</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gC-09408/</t>
+  </si>
+  <si>
+    <t>C2, C4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R3, R2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Socket_CONN_01X04</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Socket_CONN_01X05</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IN-12B Socket</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>U4, U5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>LED</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>J8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>6.8k</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>背面スイッチ</t>
+    <rPh sb="0" eb="2">
+      <t>ハイメン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>配線ケーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>熱収縮チューブ</t>
+    <rPh sb="0" eb="1">
+      <t>ネツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シュウシュク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-10271/</t>
+  </si>
+  <si>
+    <t>1個 \10</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-11146/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-02228/</t>
+  </si>
+  <si>
+    <t>10個 \80</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-00007/</t>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-00013/</t>
+  </si>
+  <si>
+    <t>10個 \200</t>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>MC34063AN</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gI-12016/</t>
+  </si>
+  <si>
+    <t>コンデンサ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ダイオード</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コネクタ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>RTC</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R3, R5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>10k</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R1, R2, R4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
     <t>ok</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -366,46 +757,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>socket</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1x4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1x5</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1x12</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>1x5</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x3</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>2x4</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>total 47</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DIP28 socket</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>ok</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -414,16 +765,35 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>DIP16 socket</t>
-    <phoneticPr fontId="18"/>
+    <t>背面スイッチ黒</t>
+    <rPh sb="0" eb="2">
+      <t>ハイメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>背面スイッチ赤</t>
+    <rPh sb="0" eb="2">
+      <t>ハイメン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ACアダプタ12V1A</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>タクトスイッチ?</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>http://akizukidenshi.com/catalog/g/gP-11701/</t>
   </si>
 </sst>
 </file>
@@ -781,7 +1151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1008,6 +1378,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1137,7 +1518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,13 +1555,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,751 +1973,2278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I55" sqref="A1:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.92578125" customWidth="1"/>
-    <col min="7" max="7" width="45.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="9.2109375" customWidth="1"/>
+    <col min="5" max="5" width="13.35546875" customWidth="1"/>
+    <col min="6" max="6" width="26.92578125" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A1" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A4" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>10</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="6">
+        <v>250</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="B8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6">
+        <v>5</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A2" t="s">
+      <c r="G10" s="6">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6">
+        <v>14</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="6">
+        <v>5</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>25</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="6">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="B17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A18" s="6"/>
+      <c r="B18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="13">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="6">
+        <v>80</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="11">
+        <v>30</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A22" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="16">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="1">
+        <v>200</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="16">
+        <v>2</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A27" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1">
+        <v>680</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>7805</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="1">
+        <v>25</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A5" t="s">
+      <c r="B34" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="1">
+        <v>21</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H34" s="1">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A36" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H36" s="1">
+        <v>2</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="1">
+        <v>10</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="1">
+        <v>200</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="1">
+        <v>18</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="1">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="I40" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="1">
+        <v>17</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="1">
+        <v>60</v>
+      </c>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="1">
+        <v>30</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="1">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="1">
+        <v>10</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="F46" s="1">
+        <v>17</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H46" s="1">
+        <v>140</v>
+      </c>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F47" s="1">
+        <v>24</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H47" s="1">
+        <v>200</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="1">
         <v>20</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="6">
-        <v>250</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="B14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="6">
-        <v>5</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="6">
-        <v>5</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="6">
-        <v>4</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="6">
-        <v>5</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="6">
-        <v>5</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="6">
-        <v>5</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="6">
-        <v>14</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="6">
-        <v>200</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="6">
-        <v>200</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A24" t="s">
+      <c r="G48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="1">
         <v>40</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="6">
-        <v>31</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="6">
-        <v>90</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="B25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A26" s="6"/>
-      <c r="B26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="14">
-        <v>50</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="6">
-        <v>31</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="6">
-        <v>80</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="s">
+      <c r="I48" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A50" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="11">
-        <v>30</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="6">
-        <f>SUM(F3:F28)</f>
-        <v>972</v>
-      </c>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A30" s="9"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="A31" s="9"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="12">
-        <f>SUM(F28:F30)</f>
-        <v>1002</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.65">
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>8</v>
-      </c>
-      <c r="G35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.65">
-      <c r="C36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.65">
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.65">
-      <c r="C38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.65">
-      <c r="C39" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.65">
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.65">
-      <c r="C43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.65">
-      <c r="C44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>48</v>
-      </c>
+      <c r="F53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A54" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="A55" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G31">
-    <sortState ref="A2:G29">
-      <sortCondition ref="B1:B29"/>
+  <autoFilter ref="A28:H28">
+    <sortState ref="A28:H49">
+      <sortCondition ref="B27"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="18.0703125" customWidth="1"/>
+    <col min="2" max="2" width="28.92578125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="9.35546875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="19.78515625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="46.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.92578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28">
+        <v>15</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6">
+        <v>8</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A6" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>14</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="6">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A8" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A9" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>14</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A10" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="6">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A13" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A14" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1</v>
+      </c>
+      <c r="D14" s="30"/>
+      <c r="E14" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A15" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="6">
+        <v>14</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="12">
+        <v>3</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A17" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="6">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A18" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="23">
+        <v>2</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="27">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="1">
+        <v>60</v>
+      </c>
+      <c r="G19" s="1">
+        <v>60</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1">
+        <v>10</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1">
+        <v>200</v>
+      </c>
+      <c r="G21" s="1">
+        <v>200</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="19">
+        <v>680</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A23" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="27">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="1">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1">
+        <v>40</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A28" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="16">
+        <v>2</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1">
+        <v>250</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="27">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="1">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19">
+        <v>7805</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="1">
+        <v>25</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="16">
+        <v>2</v>
+      </c>
+      <c r="D32" s="27">
+        <v>21</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="1">
+        <v>80</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="16">
+        <v>2</v>
+      </c>
+      <c r="D33" s="27">
+        <v>25</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="1">
+        <v>90</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="16">
+        <v>48</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="1">
+        <v>200</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="1">
+        <v>30</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A36" s="1"/>
+      <c r="B36" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="16">
+        <v>2</v>
+      </c>
+      <c r="D36" s="32">
+        <v>29</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="1">
+        <v>10</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A37" s="1"/>
+      <c r="B37" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="16">
+        <v>2</v>
+      </c>
+      <c r="D37" s="32">
+        <v>21</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="1">
+        <v>20</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A38" s="1"/>
+      <c r="B38" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="16">
+        <v>2</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="17">
+        <v>50</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A40" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="19">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="19">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A43" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="19">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="19"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A46" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A47" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
+      <c r="A48" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B48" s="19">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="27">
+        <v>8</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.65">
+      <c r="A49" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:G2">
+    <sortState ref="A3:H37">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>